--- a/biology/Botanique/Eperua_falcata/Eperua_falcata.xlsx
+++ b/biology/Botanique/Eperua_falcata/Eperua_falcata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eperua falcata est une espèce d'arbre de la famille des Caesalpiniaceae, ou des Fabaceae selon la classification phylogénétique. Il s'agit de l'espèce type du genre Eperua Aubl..
-Il représente environ 15% des arbres de la forêt naturelle en Guyane[3].
-Le nom Eperua provient du nom Galibi de son fruit qui signifie « Sabre » en raison de sa forme, qui ressemble effectivement à un sabre ou à une demi-lune[4].
-Il est connu en Guyane sous les noms de Wapa, Ouapa[5], Wapa blanc, Wapa rouge[6], Pois sabre (désuet). Wapa gras, Wapa huileux[7] (Créole), Tapaka (Wayãpi), Wap, Wap duwõ (Palikur), Ouapa (Arrouage), Bii udu, Wapa [8], Bìíudu, Bioudou, Bioudou wata, Wapa bioudou (Aluku, Nenge tongo), Apá, Muirapiranga (Portugais)[9],[10],[11].
-Ailleurs, au Guyana on le nomme aussi Parewe (Caribe), Wopa (Patamona), White wallaba, Soft wallaba (Créole du Guyana), Wallaba (Arawak), Waraba (Warao), White wallaba, Watapa[12],[13],[7].
-Au Suriname, c'est Itoeli walaba, Walaba (Arawak), Walaba, Birioedoe, Birihoedoe (Sranan tongo), Birihoedoe (Nenge tongo), Bi-oedoe (Paramaka)[14], Pala eh, Pale eh, Tamoeno pale-o, Totto amote (Karib), Wo-pa-yik (Patamona), Baboen walaba, Bijlhout (hollandais du Suriname), Birihoedoe, Zwarte wallaba, Wallaba koeleroe, Witte wallaba[12],[7]
-Au Venezuela, on l'appelle Caraota, Kourpaouyek (Arekuna), Mahomillo negro, Rosa de montaña[15].
-On cite aussi  Wallabaholz en Allemand[16] ou Wallaba en Anglais[17].
+Il représente environ 15% des arbres de la forêt naturelle en Guyane.
+Le nom Eperua provient du nom Galibi de son fruit qui signifie « Sabre » en raison de sa forme, qui ressemble effectivement à un sabre ou à une demi-lune.
+Il est connu en Guyane sous les noms de Wapa, Ouapa, Wapa blanc, Wapa rouge, Pois sabre (désuet). Wapa gras, Wapa huileux (Créole), Tapaka (Wayãpi), Wap, Wap duwõ (Palikur), Ouapa (Arrouage), Bii udu, Wapa , Bìíudu, Bioudou, Bioudou wata, Wapa bioudou (Aluku, Nenge tongo), Apá, Muirapiranga (Portugais).
+Ailleurs, au Guyana on le nomme aussi Parewe (Caribe), Wopa (Patamona), White wallaba, Soft wallaba (Créole du Guyana), Wallaba (Arawak), Waraba (Warao), White wallaba, Watapa.
+Au Suriname, c'est Itoeli walaba, Walaba (Arawak), Walaba, Birioedoe, Birihoedoe (Sranan tongo), Birihoedoe (Nenge tongo), Bi-oedoe (Paramaka), Pala eh, Pale eh, Tamoeno pale-o, Totto amote (Karib), Wo-pa-yik (Patamona), Baboen walaba, Bijlhout (hollandais du Suriname), Birihoedoe, Zwarte wallaba, Wallaba koeleroe, Witte wallaba,
+Au Venezuela, on l'appelle Caraota, Kourpaouyek (Arekuna), Mahomillo negro, Rosa de montaña.
+On cite aussi  Wallabaholz en Allemand ou Wallaba en Anglais.
 </t>
         </is>
       </c>
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs et les fruits vont pendre d’un pédoncule lianoïde pendant les saisons de floraison et de fructification. Ce pédoncule rend l’identification de l’arbre facile pendant une bonne partie de l’année.
 Eperua falcata est un arbre haut de 8 à 30(40) m, à tronc cannelé ou cylindrique, mesurant 20-80 cm de diamètre, à écorce gris brunâtre à lenticelles assez grosses tuberculées, à bois rose pâle, et portant souvent des contreforts.
@@ -550,7 +564,7 @@
 L'ovaire est généralement plus long que le gynophore, pubescent velouté, de forme oblongue à oblongue-obovale, mesurant 6-8 x 3 mm, avec le style glabre, long de 40-42 mm, et le stigmate capité.
 Le fruit est une gousse plate, naissant falquée, devenant de forme étroitement oblongue, oblongue-arquée à falciforme, atténués à chaque extrémité, mesurant 20-30(36) sur 6-8(9,5) x env.0.5 cm, ligneuse, glabrescente à plus ou moins finement pubérulente, de couleur brun jaunâtre à rouge, rouge brunâtre.
 Le stipe est long d'environ 2 cm pour environ 0,5-0,6 cm de large, se rétrécissant vers la base, à pointe obliquement acuminée sur environ 1,5 cm.
-Les 2-5 graines sont de forme ovale, elliptique, mesurant 3,3-4 x 2,2-2,5 x 1 cm, à marges épaissies, à tégument fin, de couleur brun-rouge, finement tessellé[18],[15],[14],[7],[13],[10].
+Les 2-5 graines sont de forme ovale, elliptique, mesurant 3,3-4 x 2,2-2,5 x 1 cm, à marges épaissies, à tégument fin, de couleur brun-rouge, finement tessellé.
 </t>
         </is>
       </c>
